--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2249.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2249.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222849419375562</v>
+        <v>1.153049230575562</v>
       </c>
       <c r="B1">
-        <v>2.406775297008521</v>
+        <v>2.576439142227173</v>
       </c>
       <c r="C1">
-        <v>7.499984061696204</v>
+        <v>5.978178977966309</v>
       </c>
       <c r="D1">
-        <v>2.326100490774685</v>
+        <v>2.125722646713257</v>
       </c>
       <c r="E1">
-        <v>1.157606115746478</v>
+        <v>1.223624587059021</v>
       </c>
     </row>
   </sheetData>
